--- a/current_products.xlsx
+++ b/current_products.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>prod_id_key</t>
   </si>
@@ -55,12 +55,54 @@
   </si>
   <si>
     <t>go_time5_auto2</t>
+  </si>
+  <si>
+    <t>heart_soul_3item</t>
+  </si>
+  <si>
+    <t>heart_soul_3item_auto</t>
+  </si>
+  <si>
+    <t>heart_soul_5item</t>
+  </si>
+  <si>
+    <t>heart_soul_5item_auto</t>
+  </si>
+  <si>
+    <t>go_time_3item</t>
+  </si>
+  <si>
+    <t>fit_fierce_5item</t>
+  </si>
+  <si>
+    <t>modern_muse_5itemauto</t>
+  </si>
+  <si>
+    <t>power_move_3_item</t>
+  </si>
+  <si>
+    <t>fit_fierce_3item</t>
+  </si>
+  <si>
+    <t>modern_muse_3item</t>
+  </si>
+  <si>
+    <t>modern_muse_5item</t>
+  </si>
+  <si>
+    <t>fit_fierce_3itemauto</t>
+  </si>
+  <si>
+    <t>modern_muse_3itemauto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="###########00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -109,7 +151,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -117,18 +159,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,17 +521,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -486,100 +549,247 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>69026938898</v>
       </c>
-      <c r="C2" s="1">
-        <v>91236171794</v>
+      <c r="C2" s="2">
+        <v>138427301906</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>69026316306</v>
       </c>
-      <c r="C3">
-        <v>91235975186</v>
+      <c r="C3" s="1">
+        <v>138427203602</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>52386937778</v>
       </c>
-      <c r="C4" s="1">
-        <v>91236171794</v>
+      <c r="C4" s="2">
+        <v>138427301906</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>78480408594</v>
       </c>
-      <c r="C5">
-        <v>91235975186</v>
+      <c r="C5" s="1">
+        <v>138427203602</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>78541520914</v>
       </c>
-      <c r="C6" s="1">
-        <v>91236171794</v>
+      <c r="C6" s="2">
+        <v>138427301906</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>78657093650</v>
       </c>
-      <c r="C7">
-        <v>91235975186</v>
+      <c r="C7" s="1">
+        <v>138427203602</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>91049066514</v>
       </c>
-      <c r="C8" s="1">
-        <v>91236171794</v>
+      <c r="C8" s="2">
+        <v>138427301906</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>91049230354</v>
       </c>
-      <c r="C9">
-        <v>91235975186</v>
+      <c r="C9" s="1">
+        <v>138427203602</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>91049197586</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
+        <v>138427203602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>91236466706</v>
+      </c>
+      <c r="C11" s="2">
+        <v>138427301906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>109303332882</v>
+      </c>
+      <c r="C12" s="2">
+        <v>138427301906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>109301366802</v>
+      </c>
+      <c r="C13" s="1">
+        <v>138427203602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>109301366802</v>
+      </c>
+      <c r="C14" s="1">
+        <v>138427203602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>52386037778</v>
+      </c>
+      <c r="C15" s="2">
+        <v>138427301906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
         <v>91235975186</v>
       </c>
+      <c r="C16" s="1">
+        <v>138427203602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>91236368402</v>
+      </c>
+      <c r="C17" s="1">
+        <v>138427203602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>69026938898</v>
+      </c>
+      <c r="C18" s="2">
+        <v>138427301906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>91236171794</v>
+      </c>
+      <c r="C19" s="2">
+        <v>138427301906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>91236368402</v>
+      </c>
+      <c r="C20" s="1">
+        <v>138427203602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>91236466706</v>
+      </c>
+      <c r="C21" s="2">
+        <v>138427301906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>91236171794</v>
+      </c>
+      <c r="C22" s="2">
+        <v>138427301906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>91236466706</v>
+      </c>
+      <c r="C23" s="2">
+        <v>138427301906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/current_products.xlsx
+++ b/current_products.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>prod_id_key</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>modern_muse_3itemauto</t>
+  </si>
+  <si>
+    <t>THREE MONTHS</t>
+  </si>
+  <si>
+    <t>VIP 3 Monthly Box</t>
+  </si>
+  <si>
+    <t>VIP 3 Month Box</t>
   </si>
 </sst>
 </file>
@@ -101,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="###########00000"/>
+    <numFmt numFmtId="164" formatCode="###########00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -151,8 +160,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -172,10 +189,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -184,6 +201,10 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -192,6 +213,10 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -788,8 +813,37 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23729012754</v>
+      </c>
+      <c r="C24" s="1">
+        <v>138427203602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>9175678162</v>
+      </c>
+      <c r="C25" s="1">
+        <v>138427203602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>9109818066</v>
+      </c>
+      <c r="C26" s="1">
+        <v>138427203602</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/current_products.xlsx
+++ b/current_products.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FWallace/Shopify/update_subs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D486C89-BA8A-B241-8AF0-A98313A5914F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="21120" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>prod_id_key</t>
   </si>
@@ -145,15 +151,52 @@
   </si>
   <si>
     <t>Give Me Amore - 5 Item  Auto renew</t>
+  </si>
+  <si>
+    <t>Desert Sage - 3 Item</t>
+  </si>
+  <si>
+    <t>Desert Sage - 3 Item Autorenew</t>
+  </si>
+  <si>
+    <t>Desert Sage - 5 Item</t>
+  </si>
+  <si>
+    <t>Desert Sage - 5 Item Autorenew</t>
+  </si>
+  <si>
+    <t>Running Wild - 3 Item</t>
+  </si>
+  <si>
+    <t>Running Wild - 3 item Autorenew</t>
+  </si>
+  <si>
+    <t>Running Wild - 5 Item</t>
+  </si>
+  <si>
+    <t>Running Wild - 5 Item Autorenew</t>
+  </si>
+  <si>
+    <t>After Dark - 3 Item</t>
+  </si>
+  <si>
+    <t>After Dark - 3 Item Autorenew</t>
+  </si>
+  <si>
+    <t>After Dark -5 Item</t>
+  </si>
+  <si>
+    <t>After Dark - 5 Item Autorenew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="###########00000"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="########00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -214,13 +257,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -235,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -559,22 +611,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -602,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -616,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -630,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -644,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -658,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -672,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -686,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -700,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -714,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -728,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -742,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -756,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -770,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -784,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -798,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -812,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -826,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -840,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -854,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -868,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -882,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -896,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -910,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -924,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -938,11 +990,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>138427301906</v>
       </c>
       <c r="C27" s="5">
@@ -952,11 +1004,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>159581274130</v>
       </c>
       <c r="C28" s="5">
@@ -966,11 +1018,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>138427203602</v>
       </c>
       <c r="C29" s="1">
@@ -980,11 +1032,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>159580848146</v>
       </c>
       <c r="C30" s="1">
@@ -994,11 +1046,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>138427596818</v>
       </c>
       <c r="C31" s="5">
@@ -1008,11 +1060,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>159587827730</v>
       </c>
       <c r="C32" s="5">
@@ -1022,11 +1074,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>138427465746</v>
       </c>
       <c r="C33" s="1">
@@ -1036,11 +1088,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>159586746386</v>
       </c>
       <c r="C34" s="1">
@@ -1050,11 +1102,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>138427793426</v>
       </c>
       <c r="C35" s="5">
@@ -1064,11 +1116,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>159593693202</v>
       </c>
       <c r="C36" s="5">
@@ -1078,11 +1130,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>138427695122</v>
       </c>
       <c r="C37" s="1">
@@ -1092,17 +1144,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>163444719634</v>
       </c>
       <c r="C38" s="1">
         <v>175535685650</v>
       </c>
       <c r="D38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6">
+        <v>197985992722</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="6">
+        <v>210212388882</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6">
+        <v>197983830034</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="6">
+        <v>210212356114</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="6">
+        <v>197986877458</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="6">
+        <v>210212519954</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="6">
+        <v>197986385938</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="6">
+        <v>210212454418</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="6">
+        <v>197987074066</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6">
+        <v>210212618258</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="6">
+        <v>197986910226</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="6">
+        <v>210212585490</v>
+      </c>
+      <c r="D50" s="3">
         <v>0</v>
       </c>
     </row>
